--- a/CigaretteDistributionSystem-Springboot-server/excel/cigarette_distribution_info.xlsx
+++ b/CigaretteDistributionSystem-Springboot-server/excel/cigarette_distribution_info.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11215"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/Desktop/数据/导入表数据/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94161FA-2FCB-4647-B8D2-76E12FD94210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cigarette_distribution_info" sheetId="1" r:id="rId2"/>
+    <sheet name="cigarette_distribution_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
   <si>
     <t>ID</t>
   </si>
@@ -63,12 +70,6 @@
     <t>LOWEST_GRADE</t>
   </si>
   <si>
-    <t>CREATED_AT</t>
-  </si>
-  <si>
-    <t>UPDATED_AT</t>
-  </si>
-  <si>
     <t>TAG_FILTER_CONFIG</t>
   </si>
   <si>
@@ -87,6 +88,12 @@
     <t>城乡结合区--镇中心区，镇乡结合区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42010114</t>
   </si>
   <si>
@@ -102,6 +109,12 @@
     <t>镇中心区，镇乡结合区，特殊区域.乡中心区.村庄</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>43010054</t>
   </si>
   <si>
@@ -117,6 +130,12 @@
     <t>商场.超市.烟草专业店</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020129</t>
   </si>
   <si>
@@ -132,6 +151,12 @@
     <t>商场.超市.烟草专业店.娱乐服务类.其他</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020012</t>
   </si>
   <si>
@@ -147,6 +172,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020013</t>
   </si>
   <si>
@@ -162,6 +193,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020180</t>
   </si>
   <si>
@@ -177,6 +214,12 @@
     <t>城区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020117</t>
   </si>
   <si>
@@ -192,6 +235,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020121</t>
   </si>
   <si>
@@ -207,6 +256,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020141</t>
   </si>
   <si>
@@ -222,6 +277,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020005</t>
   </si>
   <si>
@@ -237,6 +298,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020154</t>
   </si>
   <si>
@@ -252,6 +319,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020186</t>
   </si>
   <si>
@@ -267,6 +340,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020009</t>
   </si>
   <si>
@@ -282,6 +361,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020128</t>
   </si>
   <si>
@@ -297,6 +382,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020067</t>
   </si>
   <si>
@@ -312,6 +403,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>13070059</t>
   </si>
   <si>
@@ -327,6 +424,12 @@
     <t>城区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>13070011</t>
   </si>
   <si>
@@ -342,6 +445,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>13070067</t>
   </si>
   <si>
@@ -357,6 +466,12 @@
     <t>城区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>31020030</t>
   </si>
   <si>
@@ -372,6 +487,12 @@
     <t>城区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>31020002</t>
   </si>
   <si>
@@ -387,6 +508,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>32010024</t>
   </si>
   <si>
@@ -402,6 +529,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>32310010</t>
   </si>
   <si>
@@ -417,6 +550,12 @@
     <t>城区</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>33010054</t>
   </si>
   <si>
@@ -432,6 +571,12 @@
     <t>郧西，郧阳</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>33010004</t>
   </si>
   <si>
@@ -447,6 +592,12 @@
     <t>城区，丹江</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>36010067</t>
   </si>
   <si>
@@ -462,6 +613,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>37570027</t>
   </si>
   <si>
@@ -477,6 +634,12 @@
     <t>城网，农网</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>41010085</t>
   </si>
   <si>
@@ -489,6 +652,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>41010064</t>
   </si>
   <si>
@@ -501,6 +670,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>43500068</t>
   </si>
   <si>
@@ -513,6 +688,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>44020006</t>
   </si>
   <si>
@@ -528,6 +709,12 @@
     <t>农网</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>50100001</t>
   </si>
   <si>
@@ -543,6 +730,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010109</t>
   </si>
   <si>
@@ -558,6 +751,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010104</t>
   </si>
   <si>
@@ -573,6 +772,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010126</t>
   </si>
   <si>
@@ -588,6 +793,12 @@
     <t>城网</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010107</t>
   </si>
   <si>
@@ -603,6 +814,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010014</t>
   </si>
   <si>
@@ -618,6 +835,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51010101</t>
   </si>
   <si>
@@ -633,6 +856,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>51530021</t>
   </si>
   <si>
@@ -648,6 +877,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>52090050</t>
   </si>
   <si>
@@ -663,6 +898,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>53010083</t>
   </si>
   <si>
@@ -678,6 +919,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>53210069</t>
   </si>
   <si>
@@ -693,6 +940,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>61020037</t>
   </si>
   <si>
@@ -708,6 +961,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>61020034</t>
   </si>
   <si>
@@ -723,6 +982,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>62010007</t>
   </si>
   <si>
@@ -738,6 +1003,12 @@
     <t>全市</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>35300880</t>
   </si>
   <si>
@@ -753,6 +1024,12 @@
     <t>城网，农网</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42020001</t>
   </si>
   <si>
@@ -768,6 +1045,12 @@
     <t>两周一访上浮100%；</t>
   </si>
   <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>42021111</t>
   </si>
   <si>
@@ -783,10 +1066,10 @@
     <t>全市</t>
   </si>
   <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D11</t>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
   <si>
     <t>0</t>
@@ -805,19 +1088,700 @@
   </si>
   <si>
     <t>丹江（城网）、丹江（农网）、房县（城网），房县（农网）,郧西（城网）,郧西（农网）、郧阳（城网）、郧阳（农网）、竹山（城网），竹山（农网）、竹溪（城网）、竹溪（农网）</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>31020004</t>
+  </si>
+  <si>
+    <t>中华(软)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>32010019</t>
+  </si>
+  <si>
+    <t>南京(雨花石)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>41010031</t>
+  </si>
+  <si>
+    <t>黄金叶(天香细支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>34010123</t>
+  </si>
+  <si>
+    <t>黄山(徽商新概念细支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>42020162</t>
+  </si>
+  <si>
+    <t>黄鹤楼(金典中支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>42020172</t>
+  </si>
+  <si>
+    <t>黄鹤楼(视窗)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>52090059</t>
+  </si>
+  <si>
+    <t>贵烟(红中支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>43500061</t>
+  </si>
+  <si>
+    <t>芙蓉王(硬中支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>33010072</t>
+  </si>
+  <si>
+    <t>利群(山外山)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>32010018</t>
+  </si>
+  <si>
+    <t>南京(十二钗烤烟)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>51010111</t>
+  </si>
+  <si>
+    <t>娇子(宽窄好运细支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>34010097</t>
+  </si>
+  <si>
+    <t>黄山(金皖烟)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>45020020</t>
+  </si>
+  <si>
+    <t>真龙(起源)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>53010014</t>
+  </si>
+  <si>
+    <t>云烟(软珍品)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>32010020</t>
+  </si>
+  <si>
+    <t>南京(十二钗薄荷)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>35330008</t>
+  </si>
+  <si>
+    <t>万宝路(硬金3.0)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>43500001</t>
+  </si>
+  <si>
+    <t>芙蓉王(硬)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>35300088</t>
+  </si>
+  <si>
+    <t>七匹狼(银中支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>50100013</t>
+  </si>
+  <si>
+    <t>天子(中支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>53220002</t>
+  </si>
+  <si>
+    <t>玉溪(软)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>44020074</t>
+  </si>
+  <si>
+    <t>双喜(勿忘我)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>44020069</t>
+  </si>
+  <si>
+    <t>双喜(百年经典)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>37570066</t>
+  </si>
+  <si>
+    <t>泰山(颜悦)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>41010082</t>
+  </si>
+  <si>
+    <t>黄金叶(乐途硬)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>33010058</t>
+  </si>
+  <si>
+    <t>利群(软蓝)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>42020163</t>
+  </si>
+  <si>
+    <t>黄鹤楼(硬蓝)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>44020014</t>
+  </si>
+  <si>
+    <t>双喜(硬经典1906)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>61020007</t>
+  </si>
+  <si>
+    <t>好猫(细支长乐)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>20160003</t>
+  </si>
+  <si>
+    <t>人民大会堂(硬红细支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>44020056</t>
+  </si>
+  <si>
+    <t>双喜(硬金五叶神)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>52090025</t>
+  </si>
+  <si>
+    <t>贵烟(硬黄精品)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>36010058</t>
+  </si>
+  <si>
+    <t>金圣(滕王阁·紫光)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>34010065</t>
+  </si>
+  <si>
+    <t>黄山(新制皖烟)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>51010108</t>
+  </si>
+  <si>
+    <t>娇子(宽窄逍遥)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>53010048</t>
+  </si>
+  <si>
+    <t>云烟(软大重九)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>41010078</t>
+  </si>
+  <si>
+    <t>黄金叶(天叶细支)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>12010001</t>
+  </si>
+  <si>
+    <t>冬虫夏草(和润)</t>
+  </si>
+  <si>
+    <t>按价位段自选投放</t>
+  </si>
+  <si>
+    <t>优质数据共享客户</t>
+  </si>
+  <si>
+    <t>全市</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd hh:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Baoli SC"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -828,7 +1792,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -836,29 +1800,358 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S50"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,16 +2203,10 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>582</v>
+        <v>91789</v>
       </c>
       <c r="B2">
         <v>2025</v>
@@ -931,33 +2218,33 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>2683</v>
       </c>
       <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R2" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>583</v>
+        <v>91790</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -986,16 +2273,16 @@
       <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R3" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>584</v>
+        <v>91791</v>
       </c>
       <c r="B4">
         <v>2025</v>
@@ -1007,33 +2294,33 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4">
         <v>470</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R4" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>585</v>
+        <v>91792</v>
       </c>
       <c r="B5">
         <v>2025</v>
@@ -1045,33 +2332,33 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>4183</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R5" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>586</v>
+        <v>91793</v>
       </c>
       <c r="B6">
         <v>2025</v>
@@ -1083,33 +2370,33 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L6">
         <v>8407</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R6" s="2">
-        <v>45993.679803240739</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>587</v>
+        <v>91794</v>
       </c>
       <c r="B7">
         <v>2025</v>
@@ -1121,33 +2408,33 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>33093</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R7" s="2">
-        <v>45993.679872685185</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>588</v>
+        <v>91795</v>
       </c>
       <c r="B8">
         <v>2025</v>
@@ -1159,33 +2446,33 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>1643</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R8" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>589</v>
+        <v>91796</v>
       </c>
       <c r="B9">
         <v>2025</v>
@@ -1197,33 +2484,33 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L9">
         <v>46218</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R9" s="2">
-        <v>45993.679895833331</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>590</v>
+        <v>91797</v>
       </c>
       <c r="B10">
         <v>2025</v>
@@ -1235,33 +2522,33 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L10">
         <v>91667</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R10" s="2">
-        <v>45993.679918981477</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>591</v>
+        <v>91798</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -1273,33 +2560,33 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="L11">
         <v>42178</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R11" s="2">
-        <v>45993.679930555554</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>592</v>
+        <v>91799</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1311,33 +2598,33 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L12">
         <v>67551</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R12" s="2">
-        <v>45993.679942129624</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>593</v>
+        <v>91800</v>
       </c>
       <c r="B13">
         <v>2025</v>
@@ -1349,33 +2636,33 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="L13">
         <v>6851</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R13" s="2">
-        <v>45993.6799537037</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>594</v>
+        <v>91801</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -1387,33 +2674,33 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="L14">
         <v>612</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R14" s="2">
-        <v>45993.679965277777</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>105</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>595</v>
+        <v>91802</v>
       </c>
       <c r="B15">
         <v>2025</v>
@@ -1425,33 +2712,33 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="L15">
         <v>41561</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R15" s="2">
-        <v>45993.679976851847</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>112</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>596</v>
+        <v>91803</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -1463,33 +2750,33 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L16">
         <v>9211</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R16" s="2">
-        <v>45993.68</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>597</v>
+        <v>91804</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1501,33 +2788,33 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="L17">
         <v>36667</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R17" s="2">
-        <v>45993.68001157407</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>598</v>
+        <v>91805</v>
       </c>
       <c r="B18">
         <v>2025</v>
@@ -1539,33 +2826,33 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="L18">
         <v>1467</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R18" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>599</v>
+        <v>91806</v>
       </c>
       <c r="B19">
         <v>2025</v>
@@ -1577,33 +2864,33 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="L19">
         <v>14073</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R19" s="2">
-        <v>45993.680046296293</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>600</v>
+        <v>91807</v>
       </c>
       <c r="B20">
         <v>2025</v>
@@ -1615,33 +2902,33 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L20">
         <v>1376</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R20" s="2">
-        <v>45993.684027777774</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>147</v>
+      </c>
+      <c r="O20" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>601</v>
+        <v>91808</v>
       </c>
       <c r="B21">
         <v>2025</v>
@@ -1653,33 +2940,33 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="L21">
         <v>2249</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R21" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>602</v>
+        <v>91809</v>
       </c>
       <c r="B22">
         <v>2025</v>
@@ -1691,33 +2978,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="L22">
         <v>161708</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R22" s="2">
-        <v>45993.68005787037</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>603</v>
+        <v>91810</v>
       </c>
       <c r="B23">
         <v>2025</v>
@@ -1729,33 +3016,33 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="L23">
         <v>1526</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R23" s="2">
-        <v>45993.680092592593</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>604</v>
+        <v>91811</v>
       </c>
       <c r="B24">
         <v>2025</v>
@@ -1767,33 +3054,33 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="L24">
         <v>646</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R24" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>605</v>
+        <v>91812</v>
       </c>
       <c r="B25">
         <v>2025</v>
@@ -1805,33 +3092,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L25">
         <v>1586</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R25" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>606</v>
+        <v>91813</v>
       </c>
       <c r="B26">
         <v>2025</v>
@@ -1843,33 +3130,33 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="L26">
         <v>4257</v>
       </c>
       <c r="M26" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R26" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>607</v>
+        <v>91814</v>
       </c>
       <c r="B27">
         <v>2025</v>
@@ -1881,33 +3168,33 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="L27">
         <v>14767</v>
       </c>
       <c r="M27" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R27" s="2">
-        <v>45993.680115740739</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>196</v>
+      </c>
+      <c r="O27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>608</v>
+        <v>91815</v>
       </c>
       <c r="B28">
         <v>2025</v>
@@ -1919,33 +3206,33 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="L28">
         <v>20689</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R28" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>609</v>
+        <v>91816</v>
       </c>
       <c r="B29">
         <v>2025</v>
@@ -1957,30 +3244,30 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="L29">
         <v>18560</v>
       </c>
       <c r="M29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R29" s="2">
-        <v>45993.680254629624</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>610</v>
+        <v>91817</v>
       </c>
       <c r="B30">
         <v>2025</v>
@@ -1992,30 +3279,30 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="L30">
         <v>41459</v>
       </c>
       <c r="M30" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R30" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>611</v>
+        <v>91818</v>
       </c>
       <c r="B31">
         <v>2025</v>
@@ -2027,30 +3314,30 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="L31">
         <v>397</v>
       </c>
       <c r="M31" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R31" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>612</v>
+        <v>91819</v>
       </c>
       <c r="B32">
         <v>2025</v>
@@ -2062,33 +3349,33 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="L32">
         <v>2552</v>
       </c>
       <c r="M32" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R32" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>613</v>
+        <v>91820</v>
       </c>
       <c r="B33">
         <v>2025</v>
@@ -2100,33 +3387,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="L33">
         <v>187970</v>
       </c>
       <c r="M33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R33" s="2">
-        <v>45993.681516203695</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>614</v>
+        <v>91821</v>
       </c>
       <c r="B34">
         <v>2025</v>
@@ -2138,33 +3425,33 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="L34">
         <v>71429</v>
       </c>
       <c r="M34" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R34" s="2">
-        <v>45993.681527777771</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>615</v>
+        <v>91822</v>
       </c>
       <c r="B35">
         <v>2025</v>
@@ -2176,33 +3463,33 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="L35">
         <v>125000</v>
       </c>
       <c r="M35" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R35" s="2">
-        <v>45993.681550925918</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>616</v>
+        <v>91823</v>
       </c>
       <c r="B36">
         <v>2025</v>
@@ -2214,33 +3501,33 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>798</v>
       </c>
       <c r="M36" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R36" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>617</v>
+        <v>91824</v>
       </c>
       <c r="B37">
         <v>2025</v>
@@ -2252,33 +3539,33 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="L37">
         <v>92593</v>
       </c>
       <c r="M37" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R37" s="2">
-        <v>45993.681574074071</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>618</v>
+        <v>91825</v>
       </c>
       <c r="B38">
         <v>2025</v>
@@ -2290,33 +3577,33 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="I38" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="L38">
         <v>49271</v>
       </c>
       <c r="M38" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R38" s="2">
-        <v>45993.681597222218</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s">
+        <v>271</v>
+      </c>
+      <c r="P38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>619</v>
+        <v>91826</v>
       </c>
       <c r="B39">
         <v>2025</v>
@@ -2328,33 +3615,33 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="L39">
         <v>195313</v>
       </c>
       <c r="M39" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R39" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>278</v>
+      </c>
+      <c r="P39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>620</v>
+        <v>91827</v>
       </c>
       <c r="B40">
         <v>2025</v>
@@ -2366,33 +3653,33 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="L40">
         <v>101626</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R40" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>621</v>
+        <v>91828</v>
       </c>
       <c r="B41">
         <v>2025</v>
@@ -2404,33 +3691,33 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="L41">
         <v>20429</v>
       </c>
       <c r="M41" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R41" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>292</v>
+      </c>
+      <c r="P41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>622</v>
+        <v>91829</v>
       </c>
       <c r="B42">
         <v>2025</v>
@@ -2442,33 +3729,33 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="L42">
         <v>77280</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R42" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>623</v>
+        <v>91830</v>
       </c>
       <c r="B43">
         <v>2025</v>
@@ -2480,33 +3767,33 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="I43" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="L43">
         <v>48387</v>
       </c>
       <c r="M43" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R43" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>306</v>
+      </c>
+      <c r="P43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>624</v>
+        <v>91831</v>
       </c>
       <c r="B44">
         <v>2025</v>
@@ -2518,33 +3805,33 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="L44">
         <v>16722</v>
       </c>
       <c r="M44" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R44" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>313</v>
+      </c>
+      <c r="P44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>625</v>
+        <v>91832</v>
       </c>
       <c r="B45">
         <v>2025</v>
@@ -2556,33 +3843,33 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="L45">
         <v>201613</v>
       </c>
       <c r="M45" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R45" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>320</v>
+      </c>
+      <c r="P45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>626</v>
+        <v>91833</v>
       </c>
       <c r="B46">
         <v>2025</v>
@@ -2594,33 +3881,33 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="J46" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="L46">
         <v>11367</v>
       </c>
       <c r="M46" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R46" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>326</v>
+      </c>
+      <c r="O46" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>627</v>
+        <v>91834</v>
       </c>
       <c r="B47">
         <v>2025</v>
@@ -2632,33 +3919,33 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="J47" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="L47">
         <v>5133</v>
       </c>
       <c r="M47" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R47" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s">
+        <v>334</v>
+      </c>
+      <c r="P47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>628</v>
+        <v>91835</v>
       </c>
       <c r="B48">
         <v>2025</v>
@@ -2670,33 +3957,33 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="I48" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="L48">
         <v>69892</v>
       </c>
       <c r="M48" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="N48" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R48" s="2">
-        <v>45991.832662037035</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>340</v>
+      </c>
+      <c r="O48" t="s">
+        <v>341</v>
+      </c>
+      <c r="P48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>629</v>
+        <v>91836</v>
       </c>
       <c r="B49">
         <v>2025</v>
@@ -2708,42 +3995,36 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
       <c r="I49" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="L49">
         <v>115575</v>
       </c>
       <c r="M49" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="O49" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R49" s="2">
-        <v>45992.86813657407</v>
-      </c>
-      <c r="S49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>349</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>630</v>
+        <v>91837</v>
       </c>
       <c r="B50">
         <v>2025</v>
@@ -2755,30 +4036,1333 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="I50" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="L50">
         <v>51230</v>
       </c>
       <c r="M50" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>45991.832662037035</v>
-      </c>
-      <c r="R50" s="2">
-        <v>45991.832662037035</v>
+        <v>355</v>
+      </c>
+      <c r="O50" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>91752</v>
+      </c>
+      <c r="B51">
+        <v>2025</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="L51">
+        <v>3057</v>
+      </c>
+      <c r="M51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>362</v>
+      </c>
+      <c r="P51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>91753</v>
+      </c>
+      <c r="B52">
+        <v>2025</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>364</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52">
+        <v>1256</v>
+      </c>
+      <c r="M52" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s">
+        <v>368</v>
+      </c>
+      <c r="P52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>91754</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>370</v>
+      </c>
+      <c r="F53" t="s">
+        <v>371</v>
+      </c>
+      <c r="I53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53">
+        <v>186567</v>
+      </c>
+      <c r="M53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>374</v>
+      </c>
+      <c r="P53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>91755</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54">
+        <v>5531</v>
+      </c>
+      <c r="M54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>91756</v>
+      </c>
+      <c r="B55">
+        <v>2025</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55">
+        <v>47529</v>
+      </c>
+      <c r="M55" t="s">
+        <v>385</v>
+      </c>
+      <c r="O55" t="s">
+        <v>386</v>
+      </c>
+      <c r="P55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>91757</v>
+      </c>
+      <c r="B56">
+        <v>2025</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>388</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56">
+        <v>4383</v>
+      </c>
+      <c r="M56" t="s">
+        <v>391</v>
+      </c>
+      <c r="O56" t="s">
+        <v>392</v>
+      </c>
+      <c r="P56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>91758</v>
+      </c>
+      <c r="B57">
+        <v>2025</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57">
+        <v>1441</v>
+      </c>
+      <c r="M57" t="s">
+        <v>397</v>
+      </c>
+      <c r="O57" t="s">
+        <v>398</v>
+      </c>
+      <c r="P57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>91759</v>
+      </c>
+      <c r="B58">
+        <v>2025</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>400</v>
+      </c>
+      <c r="F58" t="s">
+        <v>401</v>
+      </c>
+      <c r="I58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58">
+        <v>5935</v>
+      </c>
+      <c r="M58" t="s">
+        <v>403</v>
+      </c>
+      <c r="O58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>91760</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59">
+        <v>27157</v>
+      </c>
+      <c r="M59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>410</v>
+      </c>
+      <c r="P59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>91761</v>
+      </c>
+      <c r="B60">
+        <v>2025</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>412</v>
+      </c>
+      <c r="F60" t="s">
+        <v>413</v>
+      </c>
+      <c r="I60" t="s">
+        <v>414</v>
+      </c>
+      <c r="L60">
+        <v>90253</v>
+      </c>
+      <c r="M60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>416</v>
+      </c>
+      <c r="P60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>91762</v>
+      </c>
+      <c r="B61">
+        <v>2025</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="L61">
+        <v>17361</v>
+      </c>
+      <c r="M61" t="s">
+        <v>421</v>
+      </c>
+      <c r="O61" t="s">
+        <v>422</v>
+      </c>
+      <c r="P61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>91763</v>
+      </c>
+      <c r="B62">
+        <v>2025</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" t="s">
+        <v>425</v>
+      </c>
+      <c r="I62" t="s">
+        <v>426</v>
+      </c>
+      <c r="L62">
+        <v>714286</v>
+      </c>
+      <c r="M62" t="s">
+        <v>427</v>
+      </c>
+      <c r="O62" t="s">
+        <v>428</v>
+      </c>
+      <c r="P62" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>91764</v>
+      </c>
+      <c r="B63">
+        <v>2025</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>430</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
+      </c>
+      <c r="I63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63">
+        <v>147059</v>
+      </c>
+      <c r="M63" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s">
+        <v>434</v>
+      </c>
+      <c r="P63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>91765</v>
+      </c>
+      <c r="B64">
+        <v>2025</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>436</v>
+      </c>
+      <c r="F64" t="s">
+        <v>437</v>
+      </c>
+      <c r="I64" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64">
+        <v>69832</v>
+      </c>
+      <c r="M64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>440</v>
+      </c>
+      <c r="P64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>91766</v>
+      </c>
+      <c r="B65">
+        <v>2025</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>442</v>
+      </c>
+      <c r="F65" t="s">
+        <v>443</v>
+      </c>
+      <c r="I65" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65">
+        <v>3250</v>
+      </c>
+      <c r="M65" t="s">
+        <v>445</v>
+      </c>
+      <c r="O65" t="s">
+        <v>446</v>
+      </c>
+      <c r="P65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>91767</v>
+      </c>
+      <c r="B66">
+        <v>2025</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>448</v>
+      </c>
+      <c r="F66" t="s">
+        <v>449</v>
+      </c>
+      <c r="I66" t="s">
+        <v>450</v>
+      </c>
+      <c r="L66">
+        <v>79114</v>
+      </c>
+      <c r="M66" t="s">
+        <v>451</v>
+      </c>
+      <c r="O66" t="s">
+        <v>452</v>
+      </c>
+      <c r="P66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>91768</v>
+      </c>
+      <c r="B67">
+        <v>2025</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>454</v>
+      </c>
+      <c r="F67" t="s">
+        <v>455</v>
+      </c>
+      <c r="I67" t="s">
+        <v>456</v>
+      </c>
+      <c r="L67">
+        <v>82563</v>
+      </c>
+      <c r="M67" t="s">
+        <v>457</v>
+      </c>
+      <c r="O67" t="s">
+        <v>458</v>
+      </c>
+      <c r="P67" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>91769</v>
+      </c>
+      <c r="B68">
+        <v>2025</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>460</v>
+      </c>
+      <c r="F68" t="s">
+        <v>461</v>
+      </c>
+      <c r="I68" t="s">
+        <v>462</v>
+      </c>
+      <c r="L68">
+        <v>445</v>
+      </c>
+      <c r="M68" t="s">
+        <v>463</v>
+      </c>
+      <c r="O68" t="s">
+        <v>464</v>
+      </c>
+      <c r="P68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>91770</v>
+      </c>
+      <c r="B69">
+        <v>2025</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>466</v>
+      </c>
+      <c r="F69" t="s">
+        <v>467</v>
+      </c>
+      <c r="I69" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69">
+        <v>146199</v>
+      </c>
+      <c r="M69" t="s">
+        <v>469</v>
+      </c>
+      <c r="O69" t="s">
+        <v>470</v>
+      </c>
+      <c r="P69" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>91771</v>
+      </c>
+      <c r="B70">
+        <v>2025</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>472</v>
+      </c>
+      <c r="F70" t="s">
+        <v>473</v>
+      </c>
+      <c r="I70" t="s">
+        <v>474</v>
+      </c>
+      <c r="L70">
+        <v>28802</v>
+      </c>
+      <c r="M70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>476</v>
+      </c>
+      <c r="P70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>91772</v>
+      </c>
+      <c r="B71">
+        <v>2025</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>478</v>
+      </c>
+      <c r="F71" t="s">
+        <v>479</v>
+      </c>
+      <c r="I71" t="s">
+        <v>480</v>
+      </c>
+      <c r="L71">
+        <v>831</v>
+      </c>
+      <c r="M71" t="s">
+        <v>481</v>
+      </c>
+      <c r="O71" t="s">
+        <v>482</v>
+      </c>
+      <c r="P71" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>91773</v>
+      </c>
+      <c r="B72">
+        <v>2025</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>484</v>
+      </c>
+      <c r="F72" t="s">
+        <v>485</v>
+      </c>
+      <c r="I72" t="s">
+        <v>486</v>
+      </c>
+      <c r="L72">
+        <v>5061</v>
+      </c>
+      <c r="M72" t="s">
+        <v>487</v>
+      </c>
+      <c r="O72" t="s">
+        <v>488</v>
+      </c>
+      <c r="P72" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>91774</v>
+      </c>
+      <c r="B73">
+        <v>2025</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>490</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
+      </c>
+      <c r="I73" t="s">
+        <v>492</v>
+      </c>
+      <c r="L73">
+        <v>8751</v>
+      </c>
+      <c r="M73" t="s">
+        <v>493</v>
+      </c>
+      <c r="O73" t="s">
+        <v>494</v>
+      </c>
+      <c r="P73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>91775</v>
+      </c>
+      <c r="B74">
+        <v>2025</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>496</v>
+      </c>
+      <c r="F74" t="s">
+        <v>497</v>
+      </c>
+      <c r="I74" t="s">
+        <v>498</v>
+      </c>
+      <c r="L74">
+        <v>192308</v>
+      </c>
+      <c r="M74" t="s">
+        <v>499</v>
+      </c>
+      <c r="O74" t="s">
+        <v>500</v>
+      </c>
+      <c r="P74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>91776</v>
+      </c>
+      <c r="B75">
+        <v>2025</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>502</v>
+      </c>
+      <c r="F75" t="s">
+        <v>503</v>
+      </c>
+      <c r="I75" t="s">
+        <v>504</v>
+      </c>
+      <c r="L75">
+        <v>2219</v>
+      </c>
+      <c r="M75" t="s">
+        <v>505</v>
+      </c>
+      <c r="O75" t="s">
+        <v>506</v>
+      </c>
+      <c r="P75" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>91777</v>
+      </c>
+      <c r="B76">
+        <v>2025</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>508</v>
+      </c>
+      <c r="F76" t="s">
+        <v>509</v>
+      </c>
+      <c r="I76" t="s">
+        <v>510</v>
+      </c>
+      <c r="L76">
+        <v>15633</v>
+      </c>
+      <c r="M76" t="s">
+        <v>511</v>
+      </c>
+      <c r="O76" t="s">
+        <v>512</v>
+      </c>
+      <c r="P76" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>91778</v>
+      </c>
+      <c r="B77">
+        <v>2025</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>514</v>
+      </c>
+      <c r="F77" t="s">
+        <v>515</v>
+      </c>
+      <c r="I77" t="s">
+        <v>516</v>
+      </c>
+      <c r="L77">
+        <v>4787</v>
+      </c>
+      <c r="M77" t="s">
+        <v>517</v>
+      </c>
+      <c r="O77" t="s">
+        <v>518</v>
+      </c>
+      <c r="P77" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>91779</v>
+      </c>
+      <c r="B78">
+        <v>2025</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>520</v>
+      </c>
+      <c r="F78" t="s">
+        <v>521</v>
+      </c>
+      <c r="I78" t="s">
+        <v>522</v>
+      </c>
+      <c r="L78">
+        <v>16079</v>
+      </c>
+      <c r="M78" t="s">
+        <v>523</v>
+      </c>
+      <c r="O78" t="s">
+        <v>524</v>
+      </c>
+      <c r="P78" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>91780</v>
+      </c>
+      <c r="B79">
+        <v>2025</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" t="s">
+        <v>527</v>
+      </c>
+      <c r="I79" t="s">
+        <v>528</v>
+      </c>
+      <c r="L79">
+        <v>5354</v>
+      </c>
+      <c r="M79" t="s">
+        <v>529</v>
+      </c>
+      <c r="O79" t="s">
+        <v>530</v>
+      </c>
+      <c r="P79" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>91781</v>
+      </c>
+      <c r="B80">
+        <v>2025</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>532</v>
+      </c>
+      <c r="F80" t="s">
+        <v>533</v>
+      </c>
+      <c r="I80" t="s">
+        <v>534</v>
+      </c>
+      <c r="L80">
+        <v>3534</v>
+      </c>
+      <c r="M80" t="s">
+        <v>535</v>
+      </c>
+      <c r="O80" t="s">
+        <v>536</v>
+      </c>
+      <c r="P80" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>91782</v>
+      </c>
+      <c r="B81">
+        <v>2025</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>538</v>
+      </c>
+      <c r="F81" t="s">
+        <v>539</v>
+      </c>
+      <c r="I81" t="s">
+        <v>540</v>
+      </c>
+      <c r="L81">
+        <v>3999</v>
+      </c>
+      <c r="M81" t="s">
+        <v>541</v>
+      </c>
+      <c r="O81" t="s">
+        <v>542</v>
+      </c>
+      <c r="P81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>91783</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>544</v>
+      </c>
+      <c r="F82" t="s">
+        <v>545</v>
+      </c>
+      <c r="I82" t="s">
+        <v>546</v>
+      </c>
+      <c r="L82">
+        <v>13109</v>
+      </c>
+      <c r="M82" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" t="s">
+        <v>548</v>
+      </c>
+      <c r="P82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>91784</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>550</v>
+      </c>
+      <c r="F83" t="s">
+        <v>551</v>
+      </c>
+      <c r="I83" t="s">
+        <v>552</v>
+      </c>
+      <c r="L83">
+        <v>11506</v>
+      </c>
+      <c r="M83" t="s">
+        <v>553</v>
+      </c>
+      <c r="O83" t="s">
+        <v>554</v>
+      </c>
+      <c r="P83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>91785</v>
+      </c>
+      <c r="B84">
+        <v>2025</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>556</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="I84" t="s">
+        <v>558</v>
+      </c>
+      <c r="L84">
+        <v>18657</v>
+      </c>
+      <c r="M84" t="s">
+        <v>559</v>
+      </c>
+      <c r="O84" t="s">
+        <v>560</v>
+      </c>
+      <c r="P84" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>91786</v>
+      </c>
+      <c r="B85">
+        <v>2025</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>562</v>
+      </c>
+      <c r="F85" t="s">
+        <v>563</v>
+      </c>
+      <c r="I85" t="s">
+        <v>564</v>
+      </c>
+      <c r="L85">
+        <v>938</v>
+      </c>
+      <c r="M85" t="s">
+        <v>565</v>
+      </c>
+      <c r="O85" t="s">
+        <v>566</v>
+      </c>
+      <c r="P85" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>91787</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F86" t="s">
+        <v>569</v>
+      </c>
+      <c r="I86" t="s">
+        <v>570</v>
+      </c>
+      <c r="L86">
+        <v>40850</v>
+      </c>
+      <c r="M86" t="s">
+        <v>571</v>
+      </c>
+      <c r="O86" t="s">
+        <v>572</v>
+      </c>
+      <c r="P86" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>91788</v>
+      </c>
+      <c r="B87">
+        <v>2025</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>574</v>
+      </c>
+      <c r="F87" t="s">
+        <v>575</v>
+      </c>
+      <c r="I87" t="s">
+        <v>576</v>
+      </c>
+      <c r="K87" t="s">
+        <v>577</v>
+      </c>
+      <c r="L87">
+        <v>92593</v>
+      </c>
+      <c r="M87" t="s">
+        <v>578</v>
+      </c>
+      <c r="O87" t="s">
+        <v>579</v>
+      </c>
+      <c r="P87" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>